--- a/Controle-do-projeto.xlsx
+++ b/Controle-do-projeto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cebe244a3f3857b/Projetos/DesafiosAvulsos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cebe244a3f3857b/Projetos/DesafiosAvulsos/conta-clara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_AD4D361C20488DEA4E38A03D2C9E7CBE5ADEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1011BA8D-9BB5-4F72-843F-78E868F0D574}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_AD4D361C20488DEA4E38A03D2C9E7CBE5ADEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD31AD5-E5E4-46DB-BB70-66AAD4ACABF2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03-25-NU.csv" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -326,6 +326,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1440,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1783268C-CBD5-4A1A-8003-156B026A1A4A}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
@@ -1469,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F5840F-9A61-4F30-8644-C4B62DE37C31}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,52 +1485,53 @@
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1534,37 +1539,38 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>